--- a/backend/expense_details.xlsx
+++ b/backend/expense_details.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,24 +416,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>vehicle service</v>
+        <v>Gym</v>
       </c>
       <c r="B2">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="C2" s="1">
-        <v>45927.229537037034</v>
+        <v>45943.229537037034</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>grocery</v>
+        <v>Transport</v>
       </c>
       <c r="B3">
         <v>2500</v>
       </c>
       <c r="C3" s="1">
-        <v>45925.229537037034</v>
+        <v>45938.229537037034</v>
       </c>
     </row>
     <row r="4">
@@ -441,48 +441,81 @@
         <v>Rent</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>15000</v>
       </c>
       <c r="C4" s="1">
-        <v>45915.229537037034</v>
+        <v>45922.229537037034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>foods</v>
+        <v>Beverages</v>
       </c>
       <c r="B5">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="C5" s="1">
-        <v>45914.229537037034</v>
+        <v>45918.229537037034</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Grocery</v>
+        <v>Car service</v>
       </c>
       <c r="B6">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="C6" s="1">
-        <v>45912.229537037034</v>
+        <v>45916.229537037034</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>fruits</v>
+        <v>Foods</v>
       </c>
       <c r="B7">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="C7" s="1">
+        <v>45913.229537037034</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Medical</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8" s="1">
         <v>45910.229537037034</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Pet care</v>
+      </c>
+      <c r="B9">
+        <v>8000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45907.229537037034</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Fruits</v>
+      </c>
+      <c r="B10">
+        <v>4000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45904.229537037034</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
   </ignoredErrors>
 </worksheet>
 </file>